--- a/Unternehmensliste.xlsx
+++ b/Unternehmensliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\KYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE3DBAEF-DC5C-4F00-801C-715E026840D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBD6D1C-A93A-474F-80B1-341DCA831A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{912CBF6D-28AD-482D-BD1E-0203146C039E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
   <si>
     <t>Austria</t>
   </si>
@@ -86,15 +86,6 @@
     <t>Korea, Democratic Republic of</t>
   </si>
   <si>
-    <t>Yazd Ammunition Manufacturing and Metallurgy Industries</t>
-  </si>
-  <si>
-    <t>Yazd</t>
-  </si>
-  <si>
-    <t>Iran</t>
-  </si>
-  <si>
     <t>First Name Beneficial Owner</t>
   </si>
   <si>
@@ -141,6 +132,12 @@
   </si>
   <si>
     <t>Marsalek</t>
+  </si>
+  <si>
+    <t>Rabita Trust</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
   </si>
 </sst>
 </file>
@@ -494,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E65E56F-68F9-4D04-82B7-BBED6AD280F1}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,19 +517,19 @@
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
       <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
         <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -543,19 +540,19 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>28</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
         <v>1</v>
@@ -569,19 +566,19 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
@@ -595,19 +592,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>30</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -623,13 +620,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Unternehmensliste.xlsx
+++ b/Unternehmensliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Documents\KYC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBD6D1C-A93A-474F-80B1-341DCA831A2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C961D3A-9E5E-447E-BBBE-F374660E573A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{912CBF6D-28AD-482D-BD1E-0203146C039E}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>Austria</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Yazd Metallurgy Industries</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>Yazd</t>
   </si>
 </sst>
 </file>
@@ -489,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E65E56F-68F9-4D04-82B7-BBED6AD280F1}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -626,8 +635,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
